--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA679357-C228-4BB6-B958-025E9FD33EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F768EF7E-C995-4D9A-80A1-04CD313F3DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1557,66 +1557,6 @@
   </si>
   <si>
     <t>1갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400갈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2050,11 +1990,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E393"/>
+  <dimension ref="A1:E378"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B393" sqref="B393"/>
+      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A379" sqref="A379:XFD393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8491,261 +8431,6 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A379" s="4">
-        <v>377</v>
-      </c>
-      <c r="B379" s="3">
-        <v>1.9999999999999999E+88</v>
-      </c>
-      <c r="C379" t="s">
-        <v>382</v>
-      </c>
-      <c r="D379" s="1">
-        <v>20</v>
-      </c>
-      <c r="E379" s="1">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A380" s="4">
-        <v>378</v>
-      </c>
-      <c r="B380" s="3">
-        <v>5E+88</v>
-      </c>
-      <c r="C380" t="s">
-        <v>383</v>
-      </c>
-      <c r="D380" s="1">
-        <v>20</v>
-      </c>
-      <c r="E380" s="1">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A381" s="4">
-        <v>379</v>
-      </c>
-      <c r="B381" s="3">
-        <v>9.9999999999999999E+88</v>
-      </c>
-      <c r="C381" t="s">
-        <v>384</v>
-      </c>
-      <c r="D381" s="1">
-        <v>20</v>
-      </c>
-      <c r="E381" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A382" s="4">
-        <v>380</v>
-      </c>
-      <c r="B382" s="3">
-        <v>2E+89</v>
-      </c>
-      <c r="C382" t="s">
-        <v>385</v>
-      </c>
-      <c r="D382" s="1">
-        <v>20</v>
-      </c>
-      <c r="E382" s="1">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A383" s="4">
-        <v>381</v>
-      </c>
-      <c r="B383" s="3">
-        <v>3.0000000000000001E+89</v>
-      </c>
-      <c r="C383" t="s">
-        <v>386</v>
-      </c>
-      <c r="D383" s="1">
-        <v>20</v>
-      </c>
-      <c r="E383" s="1">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A384" s="4">
-        <v>382</v>
-      </c>
-      <c r="B384" s="3">
-        <v>4.9999999999999998E+89</v>
-      </c>
-      <c r="C384" t="s">
-        <v>387</v>
-      </c>
-      <c r="D384" s="1">
-        <v>20</v>
-      </c>
-      <c r="E384" s="1">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A385" s="4">
-        <v>383</v>
-      </c>
-      <c r="B385" s="3">
-        <v>6.0000000000000003E+89</v>
-      </c>
-      <c r="C385" t="s">
-        <v>389</v>
-      </c>
-      <c r="D385" s="1">
-        <v>20</v>
-      </c>
-      <c r="E385" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A386" s="4">
-        <v>384</v>
-      </c>
-      <c r="B386" s="3">
-        <v>7.0000000000000001E+89</v>
-      </c>
-      <c r="C386" t="s">
-        <v>388</v>
-      </c>
-      <c r="D386" s="1">
-        <v>20</v>
-      </c>
-      <c r="E386" s="1">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A387" s="4">
-        <v>385</v>
-      </c>
-      <c r="B387" s="3">
-        <v>8E+89</v>
-      </c>
-      <c r="C387" t="s">
-        <v>390</v>
-      </c>
-      <c r="D387" s="1">
-        <v>20</v>
-      </c>
-      <c r="E387" s="1">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A388" s="4">
-        <v>386</v>
-      </c>
-      <c r="B388" s="3">
-        <v>9.9999999999999997E+89</v>
-      </c>
-      <c r="C388" t="s">
-        <v>391</v>
-      </c>
-      <c r="D388" s="1">
-        <v>20</v>
-      </c>
-      <c r="E388" s="1">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A389" s="4">
-        <v>387</v>
-      </c>
-      <c r="B389" s="3">
-        <v>1.4999999999999999E+90</v>
-      </c>
-      <c r="C389" t="s">
-        <v>392</v>
-      </c>
-      <c r="D389" s="1">
-        <v>20</v>
-      </c>
-      <c r="E389" s="1">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A390" s="4">
-        <v>388</v>
-      </c>
-      <c r="B390" s="3">
-        <v>1.9999999999999999E+90</v>
-      </c>
-      <c r="C390" t="s">
-        <v>393</v>
-      </c>
-      <c r="D390" s="1">
-        <v>20</v>
-      </c>
-      <c r="E390" s="1">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A391" s="4">
-        <v>389</v>
-      </c>
-      <c r="B391" s="3">
-        <v>2.5000000000000002E+90</v>
-      </c>
-      <c r="C391" t="s">
-        <v>394</v>
-      </c>
-      <c r="D391" s="1">
-        <v>20</v>
-      </c>
-      <c r="E391" s="1">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A392" s="4">
-        <v>390</v>
-      </c>
-      <c r="B392" s="3">
-        <v>2.9999999999999998E+90</v>
-      </c>
-      <c r="C392" t="s">
-        <v>395</v>
-      </c>
-      <c r="D392" s="1">
-        <v>20</v>
-      </c>
-      <c r="E392" s="1">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A393" s="4">
-        <v>391</v>
-      </c>
-      <c r="B393" s="3">
-        <v>3.9999999999999999E+90</v>
-      </c>
-      <c r="C393" t="s">
-        <v>396</v>
-      </c>
-      <c r="D393" s="1">
-        <v>20</v>
-      </c>
-      <c r="E393" s="1">
-        <v>1960</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
